--- a/workplan.xlsx
+++ b/workplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisma\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1A1C006-3DC8-464A-B3C9-1CE7F87D5172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70652C0B-A9FD-4398-BF6A-66C23B66FE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="600" windowWidth="15864" windowHeight="15708" activeTab="1" xr2:uid="{E6A7FF9F-FB40-4F68-A184-29DD4D337BCD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" activeTab="1" xr2:uid="{E6A7FF9F-FB40-4F68-A184-29DD4D337BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Page 3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet5!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet5!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Client</t>
   </si>
@@ -119,9 +119,6 @@
     <t>app.py (flask) revision + update</t>
   </si>
   <si>
-    <t>transfar pandas sqlalchemy code to VS code</t>
-  </si>
-  <si>
     <t>Caitilin</t>
   </si>
   <si>
@@ -156,6 +153,27 @@
   </si>
   <si>
     <t>content for webpages</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>census, salaries, incomes done</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>combine census tracts + income notebooks</t>
+  </si>
+  <si>
+    <t>merge census table + income table =&gt; load to db</t>
+  </si>
+  <si>
+    <t>Everyone</t>
   </si>
 </sst>
 </file>
@@ -1252,20 +1270,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB243B8-CB1F-42A2-8BA8-88782C607173}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="3" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="54.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1275,8 +1294,14 @@
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1286,108 +1311,143 @@
       <c r="C2" s="4">
         <v>44314</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>44314</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
-        <v>44314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44321</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44314</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{8CF1B49C-8CD1-4BAC-89C6-E39A97F58E5F}"/>
+  <autoFilter ref="A1:E1" xr:uid="{8E1BA738-CAC9-4A01-BCDA-598CCB1E92A0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/workplan.xlsx
+++ b/workplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisma\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70652C0B-A9FD-4398-BF6A-66C23B66FE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8158E383-B935-4412-9662-EBC101AFA29B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" activeTab="1" xr2:uid="{E6A7FF9F-FB40-4F68-A184-29DD4D337BCD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Client</t>
   </si>
@@ -134,15 +134,9 @@
     <t>salaries (javascript + plotly)</t>
   </si>
   <si>
-    <t>third page visualization</t>
-  </si>
-  <si>
     <t>third factor research</t>
   </si>
   <si>
-    <t>third factor data cleaning</t>
-  </si>
-  <si>
     <t>presentation</t>
   </si>
   <si>
@@ -174,6 +168,18 @@
   </si>
   <si>
     <t>Everyone</t>
+  </si>
+  <si>
+    <t>merge school with census + household</t>
+  </si>
+  <si>
+    <t>schools visualization</t>
+  </si>
+  <si>
+    <t>schools data cleaning</t>
+  </si>
+  <si>
+    <t>figure out geography thing</t>
   </si>
 </sst>
 </file>
@@ -197,12 +203,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,6 +241,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB243B8-CB1F-42A2-8BA8-88782C607173}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,10 +1308,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1313,29 +1326,35 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
+      <c r="C3" s="4">
+        <v>44314</v>
+      </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
+      <c r="C4" s="4">
+        <v>44314</v>
+      </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,7 +1362,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44319</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1370,15 +1392,18 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="4">
+        <v>44319</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
+      <c r="A9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1386,11 +1411,13 @@
       <c r="C9" s="4">
         <v>44314</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1398,18 +1425,21 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
+      <c r="C11" s="4">
+        <v>44321</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4">
         <v>44321</v>
@@ -1418,15 +1448,15 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
+      <c r="A14" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1434,16 +1464,38 @@
       <c r="C14" s="4">
         <v>44314</v>
       </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>38</v>
+      <c r="A15" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="4">
         <v>44314</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/workplan.xlsx
+++ b/workplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisma\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8158E383-B935-4412-9662-EBC101AFA29B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C5734-8505-4114-8E03-208487164DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" activeTab="1" xr2:uid="{E6A7FF9F-FB40-4F68-A184-29DD4D337BCD}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Page 3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet5!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet5!$A$1:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Client</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Everyone</t>
   </si>
   <si>
-    <t>merge school with census + household</t>
-  </si>
-  <si>
     <t>schools visualization</t>
   </si>
   <si>
@@ -180,6 +177,18 @@
   </si>
   <si>
     <t>figure out geography thing</t>
+  </si>
+  <si>
+    <t>Jupyter notebook - create tables in SQLite</t>
+  </si>
+  <si>
+    <t>Flask app - Homepage</t>
+  </si>
+  <si>
+    <t>Flask app - Schools</t>
+  </si>
+  <si>
+    <t>index.html - where to put map</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1292,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB243B8-CB1F-42A2-8BA8-88782C607173}">
-  <dimension ref="A1:E17"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,7 +1339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1343,7 +1353,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1379,8 +1389,8 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
@@ -1389,10 +1399,13 @@
       <c r="C7" s="4">
         <v>44319</v>
       </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1401,7 +1414,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1415,12 +1428,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44315</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1454,7 +1473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
@@ -1468,7 +1487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1482,24 +1501,46 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44315</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{8E1BA738-CAC9-4A01-BCDA-598CCB1E92A0}"/>
+  <autoFilter ref="A1:E20" xr:uid="{8E1BA738-CAC9-4A01-BCDA-598CCB1E92A0}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/workplan.xlsx
+++ b/workplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisma\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C5734-8505-4114-8E03-208487164DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617BEB28-D49F-4D5E-8B1D-03887A86407B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" activeTab="1" xr2:uid="{E6A7FF9F-FB40-4F68-A184-29DD4D337BCD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>Client</t>
   </si>
@@ -189,6 +189,36 @@
   </si>
   <si>
     <t>index.html - where to put map</t>
+  </si>
+  <si>
+    <t>PPT Updates</t>
+  </si>
+  <si>
+    <t>README</t>
+  </si>
+  <si>
+    <t>javascript cleanup</t>
+  </si>
+  <si>
+    <t>jupyter notebook</t>
+  </si>
+  <si>
+    <t>Clean up repository</t>
+  </si>
+  <si>
+    <t>Peer Evaluation</t>
+  </si>
+  <si>
+    <t>PPT pushed to Github</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Middle</t>
   </si>
 </sst>
 </file>
@@ -1293,15 +1323,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB243B8-CB1F-42A2-8BA8-88782C607173}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="54.77734375" customWidth="1"/>
@@ -1324,7 +1354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1378,7 +1408,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1403,7 +1433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1442,7 +1472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1453,7 +1483,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1495,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1515,24 +1545,187 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="4">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="4">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/workplan.xlsx
+++ b/workplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisma\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617BEB28-D49F-4D5E-8B1D-03887A86407B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE325A9B-495D-4BB3-A033-D604C111A2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" activeTab="1" xr2:uid="{E6A7FF9F-FB40-4F68-A184-29DD4D337BCD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>Client</t>
   </si>
@@ -1326,7 +1326,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,27 +1545,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1576,8 +1576,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B22" t="s">
@@ -1586,9 +1586,12 @@
       <c r="C22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
@@ -1597,8 +1600,11 @@
       <c r="C23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1617,8 +1623,8 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
@@ -1627,8 +1633,11 @@
       <c r="C26" s="4">
         <v>44323</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
